--- a/BusinessManagement/Content Collection/English/ContentPlanCBSE9English.xlsx
+++ b/BusinessManagement/Content Collection/English/ContentPlanCBSE9English.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessManagement\Content Collection\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessManagement\Content Collection\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="4"/>
+    <workbookView minimized="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -2197,8 +2197,8 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2810,7 @@
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4">
       <formula1>"CBSE,ICSE"</formula1>
     </dataValidation>
@@ -2868,7 +2868,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3503,7 +3503,7 @@
   <dimension ref="B1:M48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4241,11 +4241,11 @@
   </sheetPr>
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4258,7 +4258,7 @@
     <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="34" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
